--- a/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
+++ b/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t>tiempo</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Hall</t>
   </si>
   <si>
-    <t>Jugadora</t>
-  </si>
-  <si>
     <t>Vigilante</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Jugador</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +208,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -421,16 +439,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,25 +462,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -750,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,743 +786,751 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="15"/>
+      <c r="A21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="15"/>
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="15"/>
+      <c r="A23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="15"/>
+      <c r="A24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="15"/>
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="15"/>
+      <c r="A26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="15"/>
+      <c r="A27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="15"/>
+      <c r="A28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="12"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="15"/>
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="15"/>
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="15"/>
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="15"/>
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="15"/>
+      <c r="A33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="15"/>
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="15"/>
+      <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="12"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="15"/>
+      <c r="A36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="12"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="15"/>
+      <c r="A37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="15"/>
+      <c r="A38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="15"/>
+      <c r="A39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="12"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="15"/>
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="12"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="15"/>
+      <c r="A41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="12"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="15"/>
+      <c r="A42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="12"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="15"/>
+      <c r="A43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="12"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="15"/>
+      <c r="A44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="12"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="15"/>
+      <c r="A45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="15"/>
+      <c r="A46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="15"/>
+      <c r="A47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="12"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="15"/>
+      <c r="A48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="12"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="15"/>
+      <c r="A49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="15"/>
+      <c r="A50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="15"/>
+      <c r="A51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="12"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
+++ b/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Proyecto_2\Curso_2\Museo\Museo\Museum_U3D\Assets\Prefab\WORDyEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>tiempo</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Jugador</t>
+  </si>
+  <si>
+    <t>Esquema de juego</t>
   </si>
 </sst>
 </file>
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,10 +1104,10 @@
         <v>38</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="22"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -1172,10 +1175,10 @@
         <v>38</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1298,10 +1301,10 @@
       <c r="D36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="19"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1313,10 +1316,10 @@
       <c r="D37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="19"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,41 +1499,56 @@
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>13</v>
+      <c r="A50" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F50" s="19"/>
-      <c r="G50" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E51" s="16"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="G51" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="23"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
+++ b/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
   <si>
     <t>tiempo</t>
   </si>
@@ -177,6 +177,66 @@
   </si>
   <si>
     <t>Esquema de juego</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>Protagonista cae al Hall</t>
+  </si>
+  <si>
+    <t>Vigilante y familia comienzan a seguirle</t>
+  </si>
+  <si>
+    <t>10 segundos de seguridad</t>
+  </si>
+  <si>
+    <t>Los elementos jujables están marcados</t>
+  </si>
+  <si>
+    <t>Al acercarse saltan las preguntas</t>
+  </si>
+  <si>
+    <t>Corta distancia</t>
+  </si>
+  <si>
+    <t>Cuando se responde se elimina el objeto</t>
+  </si>
+  <si>
+    <t>¿opción por preguntas?</t>
+  </si>
+  <si>
+    <t>Tiempo para responder</t>
+  </si>
+  <si>
+    <t>10 segundos</t>
+  </si>
+  <si>
+    <t>Vigilante mata</t>
+  </si>
+  <si>
+    <t>Familia ralentiza</t>
+  </si>
+  <si>
+    <t>¿Linterna?</t>
+  </si>
+  <si>
+    <t>IDEAS</t>
+  </si>
+  <si>
+    <t>Tiempo de juego</t>
+  </si>
+  <si>
+    <t>5 minutos</t>
+  </si>
+  <si>
+    <t>finde juego</t>
+  </si>
+  <si>
+    <t>Ganas con 500 puntos y vas a la salida</t>
+  </si>
+  <si>
+    <t>Luz y Sonido</t>
   </si>
 </sst>
 </file>
@@ -775,19 +835,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="37.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -810,7 +872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -821,7 +883,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -836,7 +898,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -850,8 +912,11 @@
         <v>42</v>
       </c>
       <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -865,8 +930,17 @@
         <v>42</v>
       </c>
       <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -880,8 +954,14 @@
         <v>42</v>
       </c>
       <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -895,8 +975,17 @@
         <v>42</v>
       </c>
       <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -906,8 +995,14 @@
       <c r="E8" s="16"/>
       <c r="F8" s="19"/>
       <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -921,8 +1016,17 @@
       <c r="G9" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -936,8 +1040,17 @@
       <c r="G10" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -951,8 +1064,17 @@
       <c r="G11" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
@@ -966,8 +1088,17 @@
       <c r="G12" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -981,8 +1112,17 @@
       <c r="G13" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -996,8 +1136,20 @@
       <c r="G14" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1159,17 @@
       <c r="E15" s="16"/>
       <c r="F15" s="19"/>
       <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>

--- a/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
+++ b/Museum_U3D/Assets/Prefab/WORDyEXCEL/Tareas.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Proyecto_2\Curso_2\Museo\Museo\Museum_U3D\Assets\Prefab\WORDyEXCEL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>tiempo</t>
   </si>
@@ -242,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -827,7 +822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -838,13 +833,14 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="10" max="10" width="37.28515625" customWidth="1"/>
     <col min="11" max="11" width="26.85546875" customWidth="1"/>
   </cols>
@@ -1346,7 +1342,9 @@
         <v>9</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1361,7 +1359,9 @@
         <v>10</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
